--- a/GradedExercise.xlsx
+++ b/GradedExercise.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianr/Temp/to_correct/hs19-cr-webec-ge-sam-howl/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD82F55-E3D5-A64B-84F6-EB04DB5A4CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="2260" windowWidth="30440" windowHeight="24580" tabRatio="500"/>
+    <workbookView xWindow="8500" yWindow="-36480" windowWidth="44060" windowHeight="33140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +21,16 @@
     <definedName name="TOTAL">Sheet1!$I$40</definedName>
     <definedName name="TOTAL_POINTS">Sheet1!$I$33</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>It works</t>
   </si>
@@ -177,11 +191,38 @@
   <si>
     <t>Materialized Scaffold</t>
   </si>
+  <si>
+    <t>Nice looking and complete index.html page. Use headers and/or semantic elements next time to better structure the page.</t>
+  </si>
+  <si>
+    <t>Client communicates to the server via exposed servcies</t>
+  </si>
+  <si>
+    <t>Any other profile than the web one comes with a lot of dependencies</t>
+  </si>
+  <si>
+    <t>Framework handles the HTML generation</t>
+  </si>
+  <si>
+    <t>Show/Updte/Delete happening on the same page</t>
+  </si>
+  <si>
+    <t>2 domain classes</t>
+  </si>
+  <si>
+    <t>Beautiful UI</t>
+  </si>
+  <si>
+    <t>53 commits</t>
+  </si>
+  <si>
+    <t>21 unit tests (on server side)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -306,6 +347,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -630,26 +679,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="67.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -671,8 +721,11 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>5</v>
       </c>
@@ -680,10 +733,13 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D5">
         <v>15</v>
       </c>
@@ -691,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -703,14 +759,14 @@
       </c>
       <c r="G6" s="3">
         <f>SUM(G4:G5)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H6" s="3">
         <f>MIN(C6,G6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>2</v>
       </c>
@@ -718,10 +774,10 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>2</v>
       </c>
@@ -729,10 +785,10 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>3</v>
       </c>
@@ -740,10 +796,10 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>3</v>
       </c>
@@ -754,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>5</v>
       </c>
@@ -762,10 +818,13 @@
         <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>7</v>
       </c>
@@ -773,10 +832,13 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -785,18 +847,18 @@
       </c>
       <c r="G14" s="3">
         <f>SUM(G8:G13)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H14" s="3">
         <f>MIN(C14,G14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>5</v>
       </c>
@@ -804,10 +866,13 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>5</v>
       </c>
@@ -815,10 +880,13 @@
         <v>13</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>2</v>
       </c>
@@ -826,10 +894,13 @@
         <v>12</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D19">
         <v>2</v>
       </c>
@@ -837,10 +908,10 @@
         <v>11</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D20">
         <v>2</v>
       </c>
@@ -848,10 +919,10 @@
         <v>14</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>2</v>
       </c>
@@ -859,10 +930,10 @@
         <v>15</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>2</v>
       </c>
@@ -872,8 +943,11 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="J22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
@@ -882,14 +956,14 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G16:G22)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H23" s="3">
         <f>MIN(C23,G23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>2</v>
       </c>
@@ -900,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D26">
         <v>2</v>
       </c>
@@ -908,10 +982,13 @@
         <v>21</v>
       </c>
       <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D27">
         <v>2</v>
       </c>
@@ -922,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>5</v>
       </c>
@@ -930,10 +1007,13 @@
         <v>19</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>5</v>
       </c>
@@ -944,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
@@ -953,14 +1033,14 @@
       </c>
       <c r="G30" s="3">
         <f>SUM(G25:G29)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30" s="3">
         <f>MIN(C30,G30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>35</v>
       </c>
@@ -973,10 +1053,10 @@
       <c r="G33" s="9"/>
       <c r="H33" s="10">
         <f>SUM(H4:H30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D35">
         <v>5</v>
       </c>
@@ -987,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D36">
         <v>2</v>
       </c>
@@ -998,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D37">
         <v>2</v>
       </c>
@@ -1009,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>34</v>
       </c>
@@ -1023,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>25</v>
       </c>
@@ -1035,10 +1115,10 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9">
         <f>Bonus-Malus</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
@@ -1050,7 +1130,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5">
         <f>1 + TOTAL/10</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
